--- a/output/date/2022-01-12/2022-01-12_운동화.xlsx
+++ b/output/date/2022-01-12/2022-01-12_운동화.xlsx
@@ -505,22 +505,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>나이키 에어 맥스 퓨전 여성 운동화 CJ1671-100</t>
+          <t>푸마 클린 SKYE 여성용 스니커즈 380147-02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29186672833</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28778591743</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2918667/29186672833.20211012042642.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2877859/28778591743.20211001031503.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>57900</t>
+          <t>29780</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -536,12 +536,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>푸마</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>푸마</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -571,22 +571,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>푸마 클린 SKYE 여성용 스니커즈 380147-02</t>
+          <t>나이키 에어맥스97 트리플화이트 921826-101</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28778591743</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23289598401</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2877859/28778591743.20211001031503.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2328959/23289598401.20211014140459.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>29780</t>
+          <t>100500</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -602,12 +602,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>푸마</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>푸마</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>여성신발</t>
+          <t>남성신발</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -637,22 +637,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>나이키 에어맥스97 트리플화이트 921826-101</t>
+          <t>나이키 우먼스 데이브레이크 CK2351-101</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23289598401</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25360490521</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2328959/23289598401.20211014140459.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2536049/25360490521.20210301154204.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>100450</t>
+          <t>76870</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -683,7 +683,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>남성신발</t>
+          <t>여성신발</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -703,22 +703,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>나이키 우먼스 데이브레이크 CK2351-101</t>
+          <t>나이키 에어 테일윈드 79 487754-100</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25360490521</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27361155601</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2536049/25360490521.20210301154204.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2736115/27361155601.20210628181225.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>76870</t>
+          <t>64400</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -749,7 +749,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>여성신발</t>
+          <t>남성신발</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -769,22 +769,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>나이키 에어 테일윈드 79 487754-100</t>
+          <t>휠라 디스럽터2 운동화 FS1HTA1071X</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27361155601</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22735315471</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2736115/27361155601.20210628181225.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2273531/22735315471.20200630155842.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>64400</t>
+          <t>28480</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -800,12 +800,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>휠라</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>휠라</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>남성신발</t>
+          <t>여성신발</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -835,22 +835,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>휠라 디스럽터2 운동화 FS1HTA1071X</t>
+          <t>푸마 여성용 소프트폼 스니커즈 Jada 380751 04</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22735315471</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29187281293</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2273531/22735315471.20200630155842.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2918728/29187281293.20211011043159.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>28520</t>
+          <t>38720</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -866,14 +866,10 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>휠라</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>휠라</t>
-        </is>
-      </c>
+          <t>푸마</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
           <t>패션잡화</t>
@@ -901,22 +897,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>푸마 여성용 소프트폼 스니커즈 Jada 380751 04</t>
+          <t>나이키 에어맥스 95 에센셜 CI3705-001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29187281293</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26857843191</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2918728/29187281293.20211011043159.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2685784/26857843191.20211203090458.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>38480</t>
+          <t>100600</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -932,10 +928,14 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>푸마</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+          <t>나이키</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>나이키</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>패션잡화</t>
@@ -943,7 +943,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>여성신발</t>
+          <t>남성신발</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -963,22 +963,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>나이키 에어맥스 95 에센셜 CI3705-001</t>
+          <t>아디다스 오즈위고 카고카키 FZ3574</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26857843191</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24612937577</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2685784/26857843191.20211203090458.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2461293/24612937577.20201027181422.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>100600</t>
+          <t>67610</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -994,12 +994,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>아디다스</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>아디다스</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1029,22 +1029,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>아디다스 오즈위고 카고카키 FZ3574</t>
+          <t>나이키 에어맥스 SC 운동화 CW4554-001</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24612937577</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26450943477</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2461293/24612937577.20201027181422.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2645094/26450943477.20211216141803.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>67610</t>
+          <t>64080</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -1060,12 +1060,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>남성신발</t>
+          <t>여성신발</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1095,22 +1095,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>나이키 에어맥스 SC 운동화 CW4554-001</t>
+          <t>나이키 에어 맥스 퓨전 여성 운동화 CJ1671-100</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26450943477</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29186672833</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2645094/26450943477.20211216141803.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2918667/29186672833.20211012042642.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>64080</t>
+          <t>57900</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>49040</t>
+          <t>49020</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -1293,22 +1293,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>뉴발란스 530 남녀공용 런닝화 MR530SH</t>
+          <t>뉴발란스 우먼스 327 문빔 아우터스페이스 WS327KB</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23784996230</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25099106986</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2378499/23784996230.20211202102505.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2509910/25099106986.20201204200439.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>62990</t>
+          <t>63360</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>남성신발</t>
+          <t>여성신발</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1359,22 +1359,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>나이키 써밋화이트 우먼 TC7900 DD9682-100</t>
+          <t>뉴발란스 530 남녀공용 런닝화 MR530SH</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26790742243</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23784996230</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2679074/26790742243.20210416212740.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2378499/23784996230.20211202102505.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>67140</t>
+          <t>62970</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1390,12 +1390,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>뉴발란스</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>뉴발란스</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>여성신발</t>
+          <t>남성신발</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1425,22 +1425,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>아디다스 갤럭시5 런닝화 FW5717</t>
+          <t>나이키 써밋화이트 우먼 TC7900 DD9682-100</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27369591072</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26790742243</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2736959/27369591072.20210530172053.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2679074/26790742243.20210416212740.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>32300</t>
+          <t>67140</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1456,12 +1456,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>남성신발</t>
+          <t>여성신발</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1491,22 +1491,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>뉴발란스 992 그레이 M992GR</t>
+          <t>아디다스 갤럭시5 런닝화 FW5717</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28577791061</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27369591072</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2857779/28577791061.20211216124207.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2736959/27369591072.20210530172053.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>52790</t>
+          <t>32540</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1522,12 +1522,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>아디다스</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>아디다스</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1557,22 +1557,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>나이키 우먼스 데이브레이크 CK2351-001</t>
+          <t>뉴발란스 992 그레이 M992GR</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28098912241</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28577791061</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2809891/28098912241.20211001104403.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2857779/28577791061.20211216124207.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>58690</t>
+          <t>52790</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1588,12 +1588,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>뉴발란스</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>뉴발란스</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>여성신발</t>
+          <t>남성신발</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1623,22 +1623,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>뉴발란스 남여공용 운동화 MR530SG</t>
+          <t>나이키 우먼스 데이브레이크 CK2351-001</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24718148223</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28098912241</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2471814/24718148223.20201204110129.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2809891/28098912241.20211001104403.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>63000</t>
+          <t>58680</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1654,12 +1654,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>남성신발</t>
+          <t>여성신발</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1689,22 +1689,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>나이키 와플 트레이너 2 GS DC6477-100</t>
+          <t>뉴발란스 남여공용 운동화 MR530SG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27973888902</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24718148223</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2797388/27973888902.20210713050935.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2471814/24718148223.20201204110129.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>56000</t>
+          <t>62900</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1720,12 +1720,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>뉴발란스</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>뉴발란스</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>여성신발</t>
+          <t>남성신발</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1755,22 +1755,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>뉴발란스 327 회보 MS327FC</t>
+          <t>나이키 와플 트레이너 2 GS DC6477-100</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25623623378</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27973888902</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2562362/25623623378.20210115222428.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2797388/27973888902.20210713050935.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>72940</t>
+          <t>56000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1786,12 +1786,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1821,22 +1821,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>아디다스 울트라부스트 20 운동화 EG0691</t>
+          <t>뉴발란스 327 회보 MS327FC</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21642149232</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25623623378</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2164214/21642149232.20211127022425.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2562362/25623623378.20210115222428.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>84000</t>
+          <t>72940</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1852,12 +1852,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>뉴발란스</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>뉴발란스</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>남성신발</t>
+          <t>여성신발</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -1887,22 +1887,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>나이키 에어맥스 AP CU4826-100</t>
+          <t>나이키 써밋화이트 TC7900 DD9682-100</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27944544597</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28947045973</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2794454/27944544597.20211106050703.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2894704/28947045973.20210923115839.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>85680</t>
+          <t>81790</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>남성신발</t>
+          <t>여성신발</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -1953,22 +1953,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>나이키 써밋화이트 TC7900 DD9682-100</t>
+          <t>아디다스 울트라부스트 20 운동화 EG0691</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28947045973</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21642149232</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2894704/28947045973.20210923115839.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2164214/21642149232.20211127022425.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>81790</t>
+          <t>84000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1984,12 +1984,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>아디다스</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>아디다스</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1999,7 +1999,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>여성신발</t>
+          <t>남성신발</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2019,22 +2019,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>뉴발란스 우먼스 327 문빔 아우터스페이스 WS327KB</t>
+          <t>뉴발란스 우먼스 993 WR993GL</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25099106986</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24803501267</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2509910/25099106986.20201204200439.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2480350/24803501267.20201112010144.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>63360</t>
+          <t>110530</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -2085,22 +2085,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>나이키 레볼루션 5 BQ3204-001</t>
+          <t>나이키 에어맥스 AP CU4826-100</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26789914910</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27944544597</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2678991/26789914910.20211209102807.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2794454/27944544597.20211106050703.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>52670</t>
+          <t>85680</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -2217,22 +2217,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>나이키 W 에어맥스 AP CU4870-100</t>
+          <t>나이키 레볼루션 5 BQ3204-001</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27930647322</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26789914910</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2793064/27930647322.20211230114159.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2678991/26789914910.20211209102807.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>77350</t>
+          <t>52670</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>여성신발</t>
+          <t>남성신발</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2283,22 +2283,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>뉴발란스 530 스틸그레이 MR530KA</t>
+          <t>나이키 W 에어맥스 AP CU4870-100</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27603511048</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27930647322</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2760351/27603511048.20211202102524.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2793064/27930647322.20211230114159.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>64960</t>
+          <t>77350</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2314,12 +2314,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>남성신발</t>
+          <t>여성신발</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2349,22 +2349,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>뉴발란스 남여공용 운동화 ML574EGG</t>
+          <t>뉴발란스 530 스틸그레이 MR530KA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18332481629</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27603511048</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1833248/18332481629.20211203101653.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2760351/27603511048.20211202102524.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>66230</t>
+          <t>64960</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2415,22 +2415,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>리복 남여공용 트레킹 릿지라이더 5.0 GW5319</t>
+          <t>뉴발란스 남여공용 운동화 ML574EGG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27954431554</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18332481629</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2795443/27954431554.20211202120425.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1833248/18332481629.20211203101653.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>29180</t>
+          <t>66230</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2446,12 +2446,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>리복</t>
+          <t>뉴발란스</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>리복</t>
+          <t>뉴발란스</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2481,22 +2481,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>뉴발란스 W 327 문빔 스톰 WS327HG1</t>
+          <t>리복 남여공용 트레킹 릿지라이더 5.0 GW5319</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29274377022</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27954431554</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2927437/29274377022.20211130165406.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2795443/27954431554.20211202120425.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>83600</t>
+          <t>29180</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -2512,12 +2512,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>리복</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>리복</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2527,7 +2527,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>여성신발</t>
+          <t>남성신발</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -2547,22 +2547,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>나이키 레볼루션5 런닝화 BQ3204-002</t>
+          <t>뉴발란스 W 327 문빔 스톰 WS327HG1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24143152880</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29274377022</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2414315/24143152880.20201109150434.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2927437/29274377022.20211130165406.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>47000</t>
+          <t>83590</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2578,12 +2578,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>뉴발란스</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>뉴발란스</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>남성신발</t>
+          <t>여성신발</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -2613,22 +2613,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>아디다스 오즈위고 H04242</t>
+          <t>나이키 레볼루션5 런닝화 BQ3204-002</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27969627532</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24143152880</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2796962/27969627532.20211230104132.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2414315/24143152880.20201109150434.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>65865</t>
+          <t>47000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2644,12 +2644,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2679,22 +2679,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>휠라 웨이블렛 러닝화 1RM01263</t>
+          <t>아디다스 오즈위고 H04242</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22357937581</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27969627532</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2235793/22357937581.20211230121711.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2796962/27969627532.20211230104132.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>27920</t>
+          <t>65865</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2710,12 +2710,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>휠라</t>
+          <t>아디다스</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>휠라</t>
+          <t>아디다스</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2725,7 +2725,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>여성신발</t>
+          <t>남성신발</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -2745,22 +2745,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>뉴발란스 우먼스 993 WR993GL</t>
+          <t>휠라 웨이블렛 러닝화 1RM01263</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24803501267</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22357937581</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2480350/24803501267.20201112010144.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2235793/22357937581.20211230121711.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>110530</t>
+          <t>27920</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2776,12 +2776,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>휠라</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>휠라</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>66490</t>
+          <t>66480</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -2958,7 +2958,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>46590</t>
+          <t>45490</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -3273,22 +3273,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>나이키 에어맥스 270 운동화 AH8050-002</t>
+          <t>나이키 에어맥스 97 921733-100</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29050389662</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25417569841</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2905038/29050389662.20211203113747.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2541756/25417569841.20211209114846.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>67930</t>
+          <t>139560</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>남성신발</t>
+          <t>여성신발</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -3339,22 +3339,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>나이키 에어맥스 97 921733-100</t>
+          <t>나이키 에어맥스 270 운동화 AH8050-002</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25417569841</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29050389662</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2541756/25417569841.20211209114846.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2905038/29050389662.20211203113747.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>139560</t>
+          <t>67900</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>여성신발</t>
+          <t>남성신발</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -3405,22 +3405,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>아디다스 여성 런닝화 리스폰스 슈퍼 러닝화 RESPONSE SUPER FY6490</t>
+          <t>뉴발란스 993 스탠다드 MR993GL</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26383514367</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25789606753</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2638351/26383514367.20210316193832.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2578960/25789606753.20211203112657.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>39600</t>
+          <t>104500</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -3436,12 +3436,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>뉴발란스</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>뉴발란스</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>여성신발</t>
+          <t>남성신발</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -3471,22 +3471,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>나이키 W 에어맥스 AP CU4870-001</t>
+          <t>나이키 우먼스 에어맥스 엑시스 220 225 4종</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27955900575</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28592809613</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2795590/27955900575.20211216152123.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2859280/28592809613.20210826221641.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>78900</t>
+          <t>58650</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -3537,22 +3537,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>뉴발란스 993 스탠다드 MR993GL</t>
+          <t>뉴발란스 480 남여공용 런닝화 W480KO5</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25789606753</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25776886100</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2578960/25789606753.20211203112657.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2577688/25776886100.20210128200537.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>104500</t>
+          <t>62890</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3583,7 +3583,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>남성신발</t>
+          <t>여성신발</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -3603,22 +3603,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>나이키 우먼스 에어맥스 엑시스 220 225 4종</t>
+          <t>나이키 에어맥스 AP CU4826-002</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28592809613</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27955651707</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2859280/28592809613.20210826221641.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2795565/27955651707.20211216105252.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>58680</t>
+          <t>73930</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>여성신발</t>
+          <t>남성신발</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -3669,22 +3669,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>뉴발란스 480 남여공용 런닝화 W480KO5</t>
+          <t>나이키 에어맥스 97 GS 921522-011</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25776886100</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25109778697</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2577688/25776886100.20210128200537.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2510977/25109778697.20211203102832.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>62890</t>
+          <t>147000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -3700,12 +3700,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3735,22 +3735,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>나이키 에어맥스 AP CU4826-002</t>
+          <t>아디다스 여성 런닝화 리스폰스 슈퍼 러닝화 RESPONSE SUPER FY6490</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27955651707</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26383514367</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2795565/27955651707.20211216105252.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2638351/26383514367.20210316193832.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>73930</t>
+          <t>39600</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -3766,12 +3766,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>아디다스</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>아디다스</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3781,7 +3781,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>남성신발</t>
+          <t>여성신발</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -3801,22 +3801,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>나이키 에어맥스 97 GS 921522-011</t>
+          <t>아디다스 운동화 레트로피 E5 Q47101</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25109778697</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28609898682</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2510977/25109778697.20211203102832.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2860989/28609898682.20211224144026.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>145000</t>
+          <t>66160</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3832,12 +3832,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>아디다스</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>아디다스</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3847,7 +3847,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>여성신발</t>
+          <t>남성신발</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -3867,22 +3867,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>아디다스 운동화 레트로피 E5 Q47101</t>
+          <t>나이키 W 에어맥스 AP CU4870-001</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28609898682</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27955900575</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2860989/28609898682.20211224144026.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2795590/27955900575.20211216152123.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>67760</t>
+          <t>79340</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3898,12 +3898,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>남성신발</t>
+          <t>여성신발</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -4065,22 +4065,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>나이키 남여공용 라이즈 365 WMNS RYZ BQ4153-100</t>
+          <t>나이키 레볼루션 6 넥스트 네이처 운동화 DC3729-003</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25200948029</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29158612747</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2520094/25200948029.20220109005248.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2915861/29158612747.20211230123341.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>69300</t>
+          <t>44150</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -4099,7 +4099,11 @@
           <t>나이키</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>나이키</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>패션잡화</t>
@@ -4127,22 +4131,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>아디다스 운동화 오즈위고셀록스 GZ5231</t>
+          <t>나이키 남여공용 라이즈 365 WMNS RYZ BQ4153-100</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26297636254</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25200948029</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2629763/26297636254.20211203091945.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2520094/25200948029.20220109005248.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>78240</t>
+          <t>69300</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -4158,14 +4162,10 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>아디다스</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>아디다스</t>
-        </is>
-      </c>
+          <t>나이키</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>패션잡화</t>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>남성신발</t>
+          <t>여성신발</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -4193,43 +4193,43 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>아디다스 오리지널스 오즈위고 GV9965</t>
+          <t>뉴발란스 327 여성 남성 가을 키높이 운동화</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26014701662</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82895754565</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2601470/26014701662.20211203111832.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8289575/82895754565.7.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>50330</t>
+          <t>99000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>베이지그</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>뉴발란스</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>뉴발란스</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4239,7 +4239,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>남성신발</t>
+          <t>여성신발</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -4259,22 +4259,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>휠라 흰검 245 - 운동화</t>
+          <t>아디다스 운동화 오즈위고셀록스 GZ5231</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25291793670</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26297636254</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2529179/25291793670.20201219185943.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2629763/26297636254.20211203091945.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>27320</t>
+          <t>71350</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -4290,12 +4290,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>휠라</t>
+          <t>아디다스</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>휠라</t>
+          <t>아디다스</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4305,7 +4305,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>여성신발</t>
+          <t>남성신발</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -4325,22 +4325,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>나이키 데이브레이크 CK2351-700</t>
+          <t>아디다스 오리지널스 오즈위고 GV9965</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24302992388</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26014701662</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2430299/24302992388.20211111174619.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2601470/26014701662.20211203111832.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>71990</t>
+          <t>50310</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -4356,12 +4356,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>아디다스</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>아디다스</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4371,7 +4371,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>여성신발</t>
+          <t>남성신발</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -4391,22 +4391,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>아디다스 이큅먼트 10 U 운동화 FU8362</t>
+          <t>휠라 흰검 245 - 운동화</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21762280893</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25291793670</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2176228/21762280893.20211203112142.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2529179/25291793670.20201219185943.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>27320</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -4422,12 +4422,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>휠라</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>휠라</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>남성신발</t>
+          <t>여성신발</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -4457,22 +4457,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MLB 공용 빅볼청키 A 32SHC1941</t>
+          <t>아디다스 라이트 레이서 2.0 K 런닝화 올블랙 운동화 EH1426</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23705852176</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22073158085</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2370585/23705852176.20210401161813.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2207315/22073158085.20200229034619.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>61900</t>
+          <t>27890</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4488,12 +4488,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>MLB</t>
+          <t>아디다스</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>MLB</t>
+          <t>아디다스</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4523,22 +4523,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>아디다스 라이트 레이서 2.0 K 런닝화 올블랙 운동화 EH1426</t>
+          <t>아디다스 이큅먼트 10 U 운동화 FU8362</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22073158085</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21762280893</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2207315/22073158085.20200229034619.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2176228/21762280893.20211203112142.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>27890</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4589,22 +4589,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>아디다스 알파바운스 운동화 GZ3465</t>
+          <t>MLB 공용 빅볼청키 A 32SHC1941</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27671986405</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23705852176</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2767198/27671986405.20211231172831.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2370585/23705852176.20210401161813.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>40550</t>
+          <t>61900</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4620,12 +4620,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>MLB</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>MLB</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4655,22 +4655,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>나이키 우먼스 레볼루션 5 BQ3207-002</t>
+          <t>나이키 데이브레이크 CK2351-700</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23457025520</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24302992388</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2345702/23457025520.20210210144013.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2430299/24302992388.20211111174619.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>48990</t>
+          <t>71990</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -4721,22 +4721,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>뉴발란스 327 MS327LAB</t>
+          <t>아키클래식 키높이운동화 어글리슈즈 RS500</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24088073173</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25571714490</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2408807/24088073173.20211202100114.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2557171/25571714490.20211203110205.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>67120</t>
+          <t>35490</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4752,12 +4752,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>아키클래식</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>아키클래식</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>남성신발</t>
+          <t>여성신발</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -4787,22 +4787,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>디스커버리익스페디션 남녀공용 어글리슈즈 조거플렉스 DXSHF1111</t>
+          <t>아디다스 알파바운스 운동화 GZ3465</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25888840349</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27671986405</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2588884/25888840349.20211224153229.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2767198/27671986405.20211231172831.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>87200</t>
+          <t>40550</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -4818,12 +4818,12 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>디스커버리익스페디션</t>
+          <t>아디다스</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>F&amp;F</t>
+          <t>아디다스</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>워킹화</t>
+          <t>러닝화</t>
         </is>
       </c>
     </row>
@@ -4853,43 +4853,43 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>나이키 테일윈드 79 흰검 팬텀 검흰 베이지</t>
+          <t>뉴발란스 327 MS327LAB</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82413443463</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24088073173</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8241344/82413443463.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2408807/24088073173.20211202100114.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>89000</t>
+          <t>67120</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>홍시월드</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>뉴발란스</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>뉴발란스</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4919,22 +4919,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>프로스펙스 프로스펙스 남여 오리지널 워킹화 스택스TR 101 102</t>
+          <t>디스커버리익스페디션 남녀공용 어글리슈즈 조거플렉스 DXSHF1111</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26502182180</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25888840349</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2650218/26502182180.20210324225544.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2588884/25888840349.20211224153229.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>34540</t>
+          <t>87200</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4950,12 +4950,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>프로스펙스</t>
+          <t>디스커버리익스페디션</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>LS네트웍스</t>
+          <t>F&amp;F</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4985,22 +4985,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>아디다스 운동화 퀘스타 NXT FY9559</t>
+          <t>나이키 우먼스 레볼루션 5 BQ3207-002</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26872610206</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23457025520</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2687261/26872610206.20211209095416.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2345702/23457025520.20210210144013.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>35580</t>
+          <t>48990</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -5016,12 +5016,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -5031,7 +5031,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>남성신발</t>
+          <t>여성신발</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -5051,43 +5051,43 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>아디다스 남여공용 오즈위고 FX6029</t>
+          <t>나이키 테일윈드 79 흰검 팬텀 검흰 베이지</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27180445470</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82413443463</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2718044/27180445470.20211209101413.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8241344/82413443463.1.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>73000</t>
+          <t>89000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>홍시월드</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5117,22 +5117,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>나이키 레볼루션 6 넥스트 네이처 운동화 DC3729-003</t>
+          <t>프로스펙스 프로스펙스 남여 오리지널 워킹화 스택스TR 101 102</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29158612747</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26502182180</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2915861/29158612747.20211230123341.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2650218/26502182180.20210324225544.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>44150</t>
+          <t>34530</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -5148,12 +5148,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>프로스펙스</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>LS네트웍스</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5163,7 +5163,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>여성신발</t>
+          <t>남성신발</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -5173,7 +5173,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>러닝화</t>
+          <t>워킹화</t>
         </is>
       </c>
     </row>
@@ -5183,22 +5183,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>나이키 운동화 데이브레이크 CK2351-001</t>
+          <t>아디다스 운동화 퀘스타 NXT FY9559</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29236106988</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26872610206</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2923610/29236106988.20211015021745.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2687261/26872610206.20211209095416.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>57510</t>
+          <t>35580</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -5214,10 +5214,14 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>나이키</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr"/>
+          <t>아디다스</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>아디다스</t>
+        </is>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>패션잡화</t>
@@ -5225,7 +5229,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>여성신발</t>
+          <t>남성신발</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -5245,22 +5249,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>나이키 에어맥스 97 운동화 921522-104</t>
+          <t>아디다스 남여공용 오즈위고 FX6029</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22868788382</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27180445470</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2286878/22868788382.20201110112231.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2718044/27180445470.20211209101413.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>135580</t>
+          <t>73000</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -5276,12 +5280,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>아디다스</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>아디다스</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -5291,7 +5295,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>여성신발</t>
+          <t>남성신발</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -5311,22 +5315,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>나이키 우먼스 에어조던1 로우 울프그레이 DC0774-105</t>
+          <t>나이키 운동화 데이브레이크 CK2351-001</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27602126947</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29236106988</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2760212/27602126947.20211210051348.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2923610/29236106988.20211015021745.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>61060</t>
+          <t>57510</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -5345,11 +5349,7 @@
           <t>나이키</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>나이키</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>패션잡화</t>
@@ -5377,22 +5377,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>휠라 공용 플루이드 운동화 1JM01248D</t>
+          <t>뉴발란스 574 발이 편한 남자 여자 남여공용 운동화</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25682563474</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24042283473</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2568256/25682563474.20211224155640.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2404228/24042283473.20200904170317.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>37870</t>
+          <t>51420</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -5408,12 +5408,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>휠라</t>
+          <t>뉴발란스</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>휠라</t>
+          <t>뉴발란스</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>남성신발</t>
+          <t>여성신발</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -5443,22 +5443,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>나이키 데이브레이크 남여공용 CK2351-603</t>
+          <t>나이키 에어맥스 97 운동화 921522-104</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29209621982</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22868788382</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2920962/29209621982.20211231170724.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2286878/22868788382.20201110112231.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>76160</t>
+          <t>135570</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -5509,22 +5509,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>아키클래식 키높이운동화 어글리슈즈 RS500</t>
+          <t>나이키 우먼스 에어조던1 로우 울프그레이 DC0774-105</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25571714490</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27602126947</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2557171/25571714490.20211203110205.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2760212/27602126947.20211210051348.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>35490</t>
+          <t>61060</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>아키클래식</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>아키클래식</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -5575,22 +5575,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>뉴발란스 우먼스 327 앙고라 씨쏠트 WS327FB</t>
+          <t>휠라 공용 플루이드 운동화 1JM01248D</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27335043600</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25682563474</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2733504/27335043600.20211203115744.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2568256/25682563474.20211224155640.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>66990</t>
+          <t>37870</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -5606,12 +5606,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>휠라</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>휠라</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5621,7 +5621,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>여성신발</t>
+          <t>남성신발</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -5641,22 +5641,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>아식스 조그 100S 여성 남성 러닝화 운동화 112139201</t>
+          <t>나이키 데이브레이크 남여공용 CK2351-603</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28863891561</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29209621982</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2886389/28863891561.20211224033746.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2920962/29209621982.20211231170724.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>76160</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -5672,12 +5672,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>아식스</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>아식스</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5687,7 +5687,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>남성신발</t>
+          <t>여성신발</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -5707,43 +5707,43 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>뉴발란스 327 여성 남성 가을 키높이 운동화</t>
+          <t>나이키 우먼스 에어맥스 AP CU4870-600</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82895754565</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30233397951</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8289575/82895754565.7.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3023339/30233397951.20211220223149.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>99000</t>
+          <t>89100</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>베이지그</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5773,22 +5773,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>나이키 에어맥스97 트리플블랙 BQ4567-001</t>
+          <t>뉴발란스 우먼스 327 앙고라 씨쏠트 WS327FB</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24702059475</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27335043600</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2470205/24702059475.20201104001859.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2733504/27335043600.20211203115744.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>114980</t>
+          <t>58960</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -5804,12 +5804,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>뉴발란스</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>뉴발란스</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5819,7 +5819,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>남성신발</t>
+          <t>여성신발</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -5839,22 +5839,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>뉴발란스 327 문빔 MS327RF1</t>
+          <t>아디다스 여성용 젠틱 ZENTIC W WONWHI WONWHI HALBLU GX0421</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27945032576</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27956630069</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2794503/27945032576.20210711020235.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2795663/27956630069.20220102012851.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>54920</t>
+          <t>55950</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -5870,12 +5870,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>아디다스</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>아디다스</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5905,22 +5905,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>나이키 데이브레이크 망고 써밋 화이트 CK2351-104</t>
+          <t>뉴발란스 327 문빔 MS327RF1</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25280262792</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27945032576</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2528026/25280262792.20210407094519.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2794503/27945032576.20210711020235.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>32930</t>
+          <t>54900</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -5936,12 +5936,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>뉴발란스</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>뉴발란스</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5971,22 +5971,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>나이키 에어 모나크 4 운동화 415445-102</t>
+          <t>나이키 에어맥스97 트리플블랙 BQ4567-001</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=5721984544</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24702059475</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_5721984/5721984544.20191216104718.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2470205/24702059475.20201104001859.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>64810</t>
+          <t>114980</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -6037,22 +6037,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>뉴발란스 문빔 우먼스 WS327SFD</t>
+          <t>나이키 에어 모나크 4 운동화 415445-102</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26912137798</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=5721984544</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2691213/26912137798.20211217042043.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_5721984/5721984544.20191216104718.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>54560</t>
+          <t>64810</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -6068,12 +6068,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -6083,7 +6083,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>여성신발</t>
+          <t>남성신발</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -6103,22 +6103,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>휠라 레이 운동화 FS1SIB1160X</t>
+          <t>뉴발란스 문빔 우먼스 WS327SFD</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22528859256</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26912137798</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2252885/22528859256.20200623175147.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2691213/26912137798.20211217042043.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>38610</t>
+          <t>54560</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -6134,12 +6134,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>휠라</t>
+          <t>뉴발란스</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>휠라</t>
+          <t>뉴발란스</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -6149,7 +6149,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>남성신발</t>
+          <t>여성신발</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -6169,22 +6169,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>아디다스 여성용 스니커즈 젠틱 ZENTIC W GX0425</t>
+          <t>나이키 데이브레이크 망고 써밋 화이트 CK2351-104</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29019528239</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25280262792</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2901952/29019528239.20211215031247.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2528026/25280262792.20210407094519.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>59480</t>
+          <t>32930</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -6200,12 +6200,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -6235,22 +6235,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>아디다스 남성용 듀라모 운동화 런닝화 G58108</t>
+          <t>휠라 레이 운동화 FS1SIB1160X</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27524351413</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22528859256</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2752435/27524351413.20211216121510.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2252885/22528859256.20200623175147.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>35190</t>
+          <t>38610</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -6266,12 +6266,12 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>휠라</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>휠라</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -6301,22 +6301,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>스케쳐스 여성 스카이라인 운동화 - 2종</t>
+          <t>아디다스 여성용 스니커즈 젠틱 ZENTIC W GX0425</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28608601991</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29019528239</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2860860/28608601991.20210828040952.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2901952/29019528239.20211215031247.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>31350</t>
+          <t>59480</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -6332,12 +6332,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>스케쳐스</t>
+          <t>아디다스</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>스케쳐스</t>
+          <t>아디다스</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -6367,22 +6367,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>휠라 오프화이트 디스럽터2 Off 1FM00863-113</t>
+          <t>뉴발란스 우먼스 993 WR993GL</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28935377696</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30032813353</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2893537/28935377696.20220107105447.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3003281/30032813353.20211210223154.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>28900</t>
+          <t>99600</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -6398,14 +6398,10 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>휠라</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>휠라</t>
-        </is>
-      </c>
+          <t>뉴발란스</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>패션잡화</t>
@@ -6433,22 +6429,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>나이키 운동화 스타러너2 GS AQ3542-001</t>
+          <t>아디다스 남성용 듀라모 운동화 런닝화 G58108</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20770686536</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27524351413</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2077068/20770686536.20190829145522.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2752435/27524351413.20211216121510.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>34540</t>
+          <t>36070</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -6464,12 +6460,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>아디다스</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>아디다스</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -6479,7 +6475,7 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>여성신발</t>
+          <t>남성신발</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
@@ -6499,22 +6495,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>휠라 디스럽터 2 어글리슈즈 1FM00864</t>
+          <t>스케쳐스 여성 스카이라인 운동화 - 2종</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21445682267</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28608601991</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2144568/21445682267.20201127104416.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2860860/28608601991.20210828040952.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>29900</t>
+          <t>31160</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -6530,12 +6526,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>휠라</t>
+          <t>스케쳐스</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>휠라</t>
+          <t>스케쳐스</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -6565,22 +6561,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>뉴발란스 574 발이 편한 남자 여자 남여공용 운동화</t>
+          <t>나이키 에어맥스 엑시 CD5432-101</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24042283473</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27305006418</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2404228/24042283473.20200904170317.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2730500/27305006418.20210917021010.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>51420</t>
+          <t>59000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -6596,14 +6592,10 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>뉴발란스</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>뉴발란스</t>
-        </is>
-      </c>
+          <t>나이키</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>패션잡화</t>
@@ -6631,22 +6623,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>나이키 맨즈 와플 트레이너 2 DA8291-001</t>
+          <t>휠라 오프화이트 디스럽터2 Off 1FM00863-113</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29553419774</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28935377696</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2955341/29553419774.20211105230110.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2893537/28935377696.20220107105447.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>61040</t>
+          <t>28890</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -6662,12 +6654,12 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>휠라</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>휠라</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -6697,22 +6689,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>아디다스 오즈위고 EE6999</t>
+          <t>나이키 운동화 스타러너2 GS AQ3542-001</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23863962803</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20770686536</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2386396/23863962803.20200822173030.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2077068/20770686536.20190829145522.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>59290</t>
+          <t>34540</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -6728,12 +6720,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>아디다스</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6743,7 +6735,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>남성신발</t>
+          <t>여성신발</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -6763,22 +6755,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>나이키 W 에어맥스 97 SE DC4012-100</t>
+          <t>휠라 디스럽터 2 어글리슈즈 1FM00864</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27956404456</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21445682267</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2795640/27956404456.20210923014402.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2144568/21445682267.20201127104416.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>117040</t>
+          <t>29900</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -6794,12 +6786,12 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>휠라</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>나이키</t>
+          <t>휠라</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -6829,22 +6821,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>디스커버리익스페디션 남여공용 버킷 디워커 V2 DXSHA1111</t>
+          <t>나이키 맨즈 와플 트레이너 2 DA8291-001</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25248222879</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29553419774</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2524822/25248222879.20210215174515.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2955341/29553419774.20211105230110.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>97300</t>
+          <t>61040</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -6860,12 +6852,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>디스커버리익스페디션</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>F&amp;F</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -6875,7 +6867,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>남성신발</t>
+          <t>여성신발</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -6885,7 +6877,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>워킹화</t>
+          <t>러닝화</t>
         </is>
       </c>
     </row>
@@ -6895,22 +6887,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>휠라 운동화 레인져 1RM01141D-147</t>
+          <t>아디다스 오즈위고 EE6999</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23001790116</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23863962803</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2300179/23001790116.20220110111615.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2386396/23863962803.20200822173030.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>34400</t>
+          <t>57890</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -6926,12 +6918,12 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>휠라</t>
+          <t>아디다스</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>휠라</t>
+          <t>아디다스</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -6961,22 +6953,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>나이키 에어맥스 2017 올블랙 849559-001</t>
+          <t>나이키 W 에어맥스 97 SE DC4012-100</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24325511174</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27956404456</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2432551/24325511174.20201109125313.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2795640/27956404456.20210923014402.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>76340</t>
+          <t>117040</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -7007,7 +6999,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>남성신발</t>
+          <t>여성신발</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
